--- a/GMP/GMP Due Dates Excel.xlsx
+++ b/GMP/GMP Due Dates Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/df8835cf845dc3ed/Devan/Github/Excel/GMP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Devan\Github\Excel\GMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{011A6BE2-F24D-421E-99FC-D7254E197DF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{011A6BE2-F24D-421E-99FC-D7254E197DF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{97ADB028-58CA-40F5-AC6C-48DA91229D2B}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{B1EBD264-6603-42A3-905C-9EAC7FE52897}"/>
   </bookViews>
@@ -386,7 +386,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26171875" customWidth="1"/>
+    <col min="3" max="3" width="13.5234375" customWidth="1"/>
     <col min="4" max="4" width="11.20703125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="7" max="7" width="10.15625" bestFit="1" customWidth="1"/>
@@ -399,22 +400,12 @@
       <c r="B1" s="1">
         <v>17082</v>
       </c>
-      <c r="C1">
-        <f>IF(A1="M",)</f>
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <f>DATE(YEAR($B1)+65,MONTH($B1),DAY($B1))</f>
-        <v>40823</v>
-      </c>
-      <c r="E1" s="1">
-        <f>DATE(YEAR($B1)+60,MONTH($B1),DAY($B1))</f>
-        <v>38997</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="C1" s="1">
         <f>DATE(YEAR($B1)+IF(A1="M",65,60),MONTH($B1),DAY($B1))</f>
         <v>40823</v>
       </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="H1" s="1"/>
     </row>
   </sheetData>
